--- a/Stocks/BATAINDIA.xlsx
+++ b/Stocks/BATAINDIA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>583.83333333333337</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>585.15465226984838</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>575.53685301855717</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>60.357502349718843</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>3.5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>8.75</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.4</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>569.95808699659949</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>8.6086611100107575</v>
       </c>
       <c r="Y67">
         <v>7.8250064955313929</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>672</v>
+      </c>
+      <c r="D83">
+        <v>684</v>
+      </c>
+      <c r="E83">
+        <v>668.9</v>
+      </c>
+      <c r="F83">
+        <v>682.7</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>678.53333333333342</v>
+      </c>
+      <c r="H83">
+        <v>677.04684073871272</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>679.8418952192269</v>
+      </c>
+      <c r="K83">
+        <v>661.4422140722952</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>66.507646305627205</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>13.800000000000068</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>15.100000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.91390728476821503</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V83">
+        <v>662.91902133029407</v>
+      </c>
+      <c r="W83">
+        <v>635.96278474341193</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>26.956236586882142</v>
+      </c>
+      <c r="Y83">
+        <v>25.736094741802479</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>682.95</v>
+      </c>
+      <c r="D84">
+        <v>688.45</v>
+      </c>
+      <c r="E84">
+        <v>675</v>
+      </c>
+      <c r="F84">
+        <v>675.2</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>679.55000000000007</v>
+      </c>
+      <c r="H84">
+        <v>678.29842036935634</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>681.754807392732</v>
+      </c>
+      <c r="K84">
+        <v>664.45505538956297</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>56.166623075022628</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.20000000000004547</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>13.450000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>1.4869888475839761E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>664.80840266409496</v>
+      </c>
+      <c r="W84">
+        <v>638.86924513278882</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>25.939157531306137</v>
+      </c>
+      <c r="Y84">
+        <v>25.776707299703212</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>682.5</v>
+      </c>
+      <c r="D85">
+        <v>694.95</v>
+      </c>
+      <c r="E85">
+        <v>680.7</v>
+      </c>
+      <c r="F85">
+        <v>687</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>687.55000000000007</v>
+      </c>
+      <c r="H85">
+        <v>682.92421018467826</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>684.68707241656932</v>
+      </c>
+      <c r="K85">
+        <v>668.06504308077126</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>66.431515945559909</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>6.2999999999999545</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>14.25</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.44210526315789156</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>668.22249456192651</v>
+      </c>
+      <c r="W85">
+        <v>642.43448623406368</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>25.788008327862826</v>
+      </c>
+      <c r="Y85">
+        <v>25.778967505335135</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>688.35</v>
+      </c>
+      <c r="D86">
+        <v>695</v>
+      </c>
+      <c r="E86">
+        <v>678.15</v>
+      </c>
+      <c r="F86">
+        <v>681</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>684.7166666666667</v>
+      </c>
+      <c r="H86">
+        <v>683.82043842567248</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>686.9788341017761</v>
+      </c>
+      <c r="K86">
+        <v>670.30614461837763</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.824706558696612</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>2.8500000000000227</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.850000000000023</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.16913946587537204</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>670.18826462932248</v>
+      </c>
+      <c r="W86">
+        <v>645.29119095746637</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>24.897073671856106</v>
+      </c>
+      <c r="Y86">
+        <v>25.60258873863933</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>685</v>
+      </c>
+      <c r="D87">
+        <v>688.2</v>
+      </c>
+      <c r="E87">
+        <v>680.15</v>
+      </c>
+      <c r="F87">
+        <v>685.3</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>684.54999999999984</v>
+      </c>
+      <c r="H87">
+        <v>684.18521921283616</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>687.25020430138147</v>
+      </c>
+      <c r="K87">
+        <v>672.49366803651594</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>62.210664794148983</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>5.1499999999999773</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>8.0500000000000682</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.63975155279502283</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>672.51314699404213</v>
+      </c>
+      <c r="W87">
+        <v>648.25480644209847</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>24.258340551943661</v>
+      </c>
+      <c r="Y87">
+        <v>25.333739101300196</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>685.1</v>
+      </c>
+      <c r="D88">
+        <v>700</v>
+      </c>
+      <c r="E88">
+        <v>676</v>
+      </c>
+      <c r="F88">
+        <v>682</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>686</v>
+      </c>
+      <c r="H88">
+        <v>685.09260960641814</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>690.0834922344078</v>
+      </c>
+      <c r="K88">
+        <v>673.27285291729015</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>56.567427586187755</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>24</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.25</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>673.97266284111254</v>
+      </c>
+      <c r="W88">
+        <v>650.7544504093504</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>23.21821243176214</v>
+      </c>
+      <c r="Y88">
+        <v>24.910633767392586</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>689.5</v>
+      </c>
+      <c r="D89">
+        <v>692.4</v>
+      </c>
+      <c r="E89">
+        <v>683.2</v>
+      </c>
+      <c r="F89">
+        <v>688.2</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>687.93333333333339</v>
+      </c>
+      <c r="H89">
+        <v>686.51297146987577</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>690.59827173787278</v>
+      </c>
+      <c r="K89">
+        <v>675.47888560233685</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>64.195124007873545</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>9.1999999999999318</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.5434782608695693</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>676.16148394247989</v>
+      </c>
+      <c r="W89">
+        <v>653.52819482347263</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>22.633289119007259</v>
+      </c>
+      <c r="Y89">
+        <v>24.455164837715522</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>686.8</v>
+      </c>
+      <c r="D90">
+        <v>698.95</v>
+      </c>
+      <c r="E90">
+        <v>682.55</v>
+      </c>
+      <c r="F90">
+        <v>693.3</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>691.6</v>
+      </c>
+      <c r="H90">
+        <v>689.05648573493795</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>692.45421135167885</v>
+      </c>
+      <c r="K90">
+        <v>677.05024435737312</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>69.671756572930647</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10.75</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>16.400000000000091</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.65548780487804514</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>678.79817872055992</v>
+      </c>
+      <c r="W90">
+        <v>656.47425446617831</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>22.323924254381609</v>
+      </c>
+      <c r="Y90">
+        <v>24.028916721048738</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>694.9</v>
+      </c>
+      <c r="D91">
+        <v>700</v>
+      </c>
+      <c r="E91">
+        <v>688.1</v>
+      </c>
+      <c r="F91">
+        <v>689</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>692.36666666666667</v>
+      </c>
+      <c r="H91">
+        <v>690.71157620080226</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>694.13105327352798</v>
+      </c>
+      <c r="K91">
+        <v>679.50574561129019</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>59.999508709246065</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>11.899999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>7.5630252100838569E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>680.36768968662761</v>
+      </c>
+      <c r="W91">
+        <v>658.88356895016511</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>21.484120736462501</v>
+      </c>
+      <c r="Y91">
+        <v>23.519957524131492</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>691.85</v>
+      </c>
+      <c r="D92">
+        <v>695.25</v>
+      </c>
+      <c r="E92">
+        <v>687</v>
+      </c>
+      <c r="F92">
+        <v>690</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>690.75</v>
+      </c>
+      <c r="H92">
+        <v>690.73078810040113</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>694.3797081016329</v>
+      </c>
+      <c r="K92">
+        <v>681.17113547544795</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>61.551164565026816</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>8.25</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>681.84958358099254</v>
+      </c>
+      <c r="W92">
+        <v>661.18848976867139</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>20.661093812321155</v>
+      </c>
+      <c r="Y92">
+        <v>22.948184781769424</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>694.7</v>
+      </c>
+      <c r="D93">
+        <v>722.9</v>
+      </c>
+      <c r="E93">
+        <v>694</v>
+      </c>
+      <c r="F93">
+        <v>722.9</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>713.26666666666677</v>
+      </c>
+      <c r="H93">
+        <v>701.99872738353395</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>700.71755074571445</v>
+      </c>
+      <c r="K93">
+        <v>684.02199425868173</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>85.185072109378851</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>28.899999999999977</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>28.899999999999977</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>688.16503226083989</v>
+      </c>
+      <c r="W93">
+        <v>665.75971274876986</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>22.405319512070037</v>
+      </c>
+      <c r="Y93">
+        <v>22.839611727829546</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>724.25</v>
+      </c>
+      <c r="D94">
+        <v>727.45</v>
+      </c>
+      <c r="E94">
+        <v>713.7</v>
+      </c>
+      <c r="F94">
+        <v>720</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>720.38333333333333</v>
+      </c>
+      <c r="H94">
+        <v>711.19103035843364</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>706.65809502444461</v>
+      </c>
+      <c r="K94">
+        <v>690.61710664564134</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>79.781666622370523</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6.2999999999999545</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>13.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.45818181818181486</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>693.06271960532604</v>
+      </c>
+      <c r="W94">
+        <v>669.77751180441658</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>23.285207800909461</v>
+      </c>
+      <c r="Y94">
+        <v>22.928730942445529</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>720.9</v>
+      </c>
+      <c r="D95">
+        <v>726.2</v>
+      </c>
+      <c r="E95">
+        <v>706</v>
+      </c>
+      <c r="F95">
+        <v>710</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>714.06666666666661</v>
+      </c>
+      <c r="H95">
+        <v>712.62884851255012</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>711.000740574568</v>
+      </c>
+      <c r="K95">
+        <v>694.03552739105442</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>62.651934717615099</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>20.200000000000045</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.19801980198019759</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>695.66845505066044</v>
+      </c>
+      <c r="W95">
+        <v>672.75695537445984</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>22.911499676200606</v>
+      </c>
+      <c r="Y95">
+        <v>22.925284689196545</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>711</v>
+      </c>
+      <c r="D96">
+        <v>726</v>
+      </c>
+      <c r="E96">
+        <v>710.1</v>
+      </c>
+      <c r="F96">
+        <v>723.65</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>719.91666666666663</v>
+      </c>
+      <c r="H96">
+        <v>716.27275758960832</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>714.33390933577516</v>
+      </c>
+      <c r="K96">
+        <v>697.6054101930423</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>72.665711390459464</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>13.549999999999955</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>15.899999999999977</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.85220125786163359</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>699.97330811978964</v>
+      </c>
+      <c r="W96">
+        <v>676.52681053190724</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>23.446497587882391</v>
+      </c>
+      <c r="Y96">
+        <v>23.029527268933712</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>711.90000000000009</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>716.15000000000009</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>718.05000000000007</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>719.95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>720.95</v>
+      </c>
+      <c r="D97">
+        <v>725.35</v>
+      </c>
+      <c r="E97">
+        <v>712.15</v>
+      </c>
+      <c r="F97">
+        <v>719.3</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>718.93333333333339</v>
+      </c>
+      <c r="H97">
+        <v>717.60304546147086</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>716.78192948338074</v>
+      </c>
+      <c r="K97">
+        <v>700.83754126125507</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>65.65351029415659</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>7.1499999999999773</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>13.200000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.54166666666666308</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>702.94664533212972</v>
+      </c>
+      <c r="W97">
+        <v>679.69519493695111</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>23.251450395178608</v>
+      </c>
+      <c r="Y97">
+        <v>23.073911894182693</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>722.9</v>
+      </c>
+      <c r="D98">
+        <v>737.6</v>
+      </c>
+      <c r="E98">
+        <v>719.75</v>
+      </c>
+      <c r="F98">
+        <v>729.5</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>728.94999999999993</v>
+      </c>
+      <c r="H98">
+        <v>723.27652273073545</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>721.40816737596276</v>
+      </c>
+      <c r="K98">
+        <v>705.04030986986504</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>73.226276302467824</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>9.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>17.850000000000023</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.54621848739495726</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>707.03177681949433</v>
+      </c>
+      <c r="W98">
+        <v>683.38443975643622</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>23.647337063058103</v>
+      </c>
+      <c r="Y98">
+        <v>23.188596927957775</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>732</v>
+      </c>
+      <c r="D99">
+        <v>740.7</v>
+      </c>
+      <c r="E99">
+        <v>731.05</v>
+      </c>
+      <c r="F99">
+        <v>735.45</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>735.73333333333323</v>
+      </c>
+      <c r="H99">
+        <v>729.50492803203429</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>725.69524129241552</v>
+      </c>
+      <c r="K99">
+        <v>710.82024100989497</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>76.934470101641921</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>4.4000000000000909</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>9.6500000000000909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.45595854922280304</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>711.40381115495677</v>
+      </c>
+      <c r="W99">
+        <v>687.24114792262617</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>24.162663232330601</v>
+      </c>
+      <c r="Y99">
+        <v>23.38341018883234</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>738.9</v>
+      </c>
+      <c r="D100">
+        <v>738.9</v>
+      </c>
+      <c r="E100">
+        <v>725.1</v>
+      </c>
+      <c r="F100">
+        <v>729</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>731</v>
+      </c>
+      <c r="H100">
+        <v>730.25246401601714</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>728.62963211632314</v>
+      </c>
+      <c r="K100">
+        <v>713.99352078547383</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>64.777376439485437</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.8999999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.799999999999955</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.28260869565217317</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>714.11091713111728</v>
+      </c>
+      <c r="W100">
+        <v>690.33439622465391</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>23.776520906463361</v>
+      </c>
+      <c r="Y100">
+        <v>23.462032332358543</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>729</v>
+      </c>
+      <c r="D101">
+        <v>749.6</v>
+      </c>
+      <c r="E101">
+        <v>724.25</v>
+      </c>
+      <c r="F101">
+        <v>748.45</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>740.76666666666677</v>
+      </c>
+      <c r="H101">
+        <v>735.50956534134195</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>733.28971386825128</v>
+      </c>
+      <c r="K101">
+        <v>716.2727383887019</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>77.925610016962139</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>24.200000000000045</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>25.350000000000023</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.95463510848126332</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V101">
+        <v>719.39385295709928</v>
+      </c>
+      <c r="W101">
+        <v>694.63925576356849</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>24.754597193530799</v>
+      </c>
+      <c r="Y101">
+        <v>23.720545304592996</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD101">
+        <f t="shared" si="35"/>
+        <v>727.15000000000009</v>
+      </c>
+      <c r="AE101">
+        <f t="shared" si="36"/>
+        <v>733.95</v>
+      </c>
+      <c r="AF101">
+        <f t="shared" si="37"/>
+        <v>736.90000000000009</v>
+      </c>
+      <c r="AG101">
+        <f t="shared" si="38"/>
+        <v>739.90000000000009</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>743</v>
+      </c>
+      <c r="D102">
+        <v>743.55</v>
+      </c>
+      <c r="E102">
+        <v>722.5</v>
+      </c>
+      <c r="F102">
+        <v>723.55</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>729.86666666666667</v>
+      </c>
+      <c r="H102">
+        <v>732.68811600400431</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>735.56977745308427</v>
+      </c>
+      <c r="K102">
+        <v>717.65657430232375</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>48.784028193997642</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>1.0499999999999545</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>21.049999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>4.9881235154392245E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>720.03326019446865</v>
+      </c>
+      <c r="W102">
+        <v>696.78079237367456</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>23.252467820794095</v>
+      </c>
+      <c r="Y102">
+        <v>23.626929807833214</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>721.7</v>
+      </c>
+      <c r="D103">
+        <v>724.95</v>
+      </c>
+      <c r="E103">
+        <v>702.45</v>
+      </c>
+      <c r="F103">
+        <v>711.9</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>713.1</v>
+      </c>
+      <c r="H103">
+        <v>722.89405800200211</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>733.20982690795449</v>
+      </c>
+      <c r="K103">
+        <v>714.27733556847409</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>40.029220093907924</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>9.4499999999999318</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>22.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.41999999999999699</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>718.78198939531967</v>
+      </c>
+      <c r="W103">
+        <v>697.90073367932825</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>20.881255715991415</v>
+      </c>
+      <c r="Y103">
+        <v>23.077794989464856</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>714.7</v>
+      </c>
+      <c r="D104">
+        <v>714.7</v>
+      </c>
+      <c r="E104">
+        <v>685.05</v>
+      </c>
+      <c r="F104">
+        <v>690</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>696.58333333333337</v>
+      </c>
+      <c r="H104">
+        <v>709.7386956676678</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>729.09653203952018</v>
+      </c>
+      <c r="K104">
+        <v>707.78237210881321</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>28.156007429152634</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>4.9500000000000455</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>29.650000000000091</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.16694772344013592</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>714.3539910268089</v>
+      </c>
+      <c r="W104">
+        <v>697.31549414752612</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>17.038496879282775</v>
+      </c>
+      <c r="Y104">
+        <v>21.86993536742844</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>696</v>
+      </c>
+      <c r="D105">
+        <v>696.95</v>
+      </c>
+      <c r="E105">
+        <v>678.3</v>
+      </c>
+      <c r="F105">
+        <v>680.5</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>685.25</v>
+      </c>
+      <c r="H105">
+        <v>697.4943478338339</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>721.95285825296014</v>
+      </c>
+      <c r="K105">
+        <v>701.23073386241026</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>24.254960358330681</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.2000000000000455</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>18.650000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.11796246648793753</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>709.14568471499217</v>
+      </c>
+      <c r="W105">
+        <v>696.06990198845017</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>13.075782726542002</v>
+      </c>
+      <c r="Y105">
+        <v>20.111104839251151</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>694.80000000000007</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>689.85</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>687.65000000000009</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>685.40000000000009</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>676.5</v>
+      </c>
+      <c r="D106">
+        <v>698</v>
+      </c>
+      <c r="E106">
+        <v>668.5</v>
+      </c>
+      <c r="F106">
+        <v>697.25</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>687.91666666666663</v>
+      </c>
+      <c r="H106">
+        <v>692.70550725025032</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J106">
+        <v>716.63000086341344</v>
+      </c>
+      <c r="K106">
+        <v>693.95723744854126</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>41.973805983466292</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>28.75</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>29.5</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.97457627118644063</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>707.31557937422417</v>
+      </c>
+      <c r="W106">
+        <v>696.15731665597241</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>11.158262718251763</v>
+      </c>
+      <c r="Y106">
+        <v>18.320536415051272</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>699</v>
+      </c>
+      <c r="D107">
+        <v>699</v>
+      </c>
+      <c r="E107">
+        <v>684.1</v>
+      </c>
+      <c r="F107">
+        <v>693.4</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>692.16666666666663</v>
+      </c>
+      <c r="H107">
+        <v>692.43608695845842</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>712.71222289376601</v>
+      </c>
+      <c r="K107">
+        <v>691.76674023775433</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>39.330390572836627</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>9.2999999999999545</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>14.899999999999977</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.62416107382550123</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>705.17472100895895</v>
+      </c>
+      <c r="W107">
+        <v>695.95307097775219</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>9.2216500312067637</v>
+      </c>
+      <c r="Y107">
+        <v>16.500759138282369</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
